--- a/SoftDrinks.xlsx
+++ b/SoftDrinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/133e0e9c30ba4531/Desktop/OMBE_1320_YPX/QMBE_1320_YPX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{305C3EAE-C0B1-42BE-80FB-8640B9E2F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{305C3EAE-C0B1-42BE-80FB-8640B9E2F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33DCA6BF-372C-43D0-9F18-78C19E424F65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="10">
   <si>
     <t>Coke</t>
   </si>
@@ -62,12 +62,15 @@
   <si>
     <t>PF</t>
   </si>
+  <si>
+    <t>CF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +90,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,10 +125,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -127,9 +138,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,15 +674,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9F590-D820-40C5-A0AB-C0802B0917B9}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -682,8 +696,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,11 +718,15 @@
         <f>$E$2/$E$7</f>
         <v>0.38</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H2" s="5">
+        <f>SUM($G$2:G2)</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,11 +744,15 @@
         <f>+$E$3/$E$7</f>
         <v>0.1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H3" s="5">
+        <f>SUM($G$2:G3)</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -745,11 +770,15 @@
         <f>$E$4/$E$7</f>
         <v>0.26</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H4" s="5">
+        <f>SUM($G$2:G4)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -767,11 +796,15 @@
         <f>$E$5/$E$7</f>
         <v>0.16</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H5" s="5">
+        <f>SUM($G$2:G5)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,11 +822,15 @@
         <f>$E$6/$E$7</f>
         <v>0.1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H6" s="5">
+        <f>SUM($G$2:G6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -805,7 +842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -813,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -821,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -829,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -837,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -853,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -861,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>

--- a/SoftDrinks.xlsx
+++ b/SoftDrinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/133e0e9c30ba4531/Desktop/OMBE_1320_YPX/QMBE_1320_YPX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{305C3EAE-C0B1-42BE-80FB-8640B9E2F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33DCA6BF-372C-43D0-9F18-78C19E424F65}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{305C3EAE-C0B1-42BE-80FB-8640B9E2F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C6EE11-AFDD-42EA-BB61-B38715EFBBA4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,11 +135,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +156,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,10 +463,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -677,16 +681,16 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="5"/>
       <c r="D1" t="s">
         <v>6</v>
       </c>
@@ -718,10 +722,10 @@
         <f>$E$2/$E$7</f>
         <v>0.38</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0.38</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>SUM($G$2:G2)</f>
         <v>0.38</v>
       </c>
@@ -744,10 +748,10 @@
         <f>+$E$3/$E$7</f>
         <v>0.1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>SUM($G$2:G3)</f>
         <v>0.48</v>
       </c>
@@ -770,10 +774,10 @@
         <f>$E$4/$E$7</f>
         <v>0.26</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.26</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>SUM($G$2:G4)</f>
         <v>0.74</v>
       </c>
@@ -796,10 +800,10 @@
         <f>$E$5/$E$7</f>
         <v>0.16</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.16</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>SUM($G$2:G5)</f>
         <v>0.9</v>
       </c>
@@ -822,10 +826,10 @@
         <f>$E$6/$E$7</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>SUM($G$2:G6)</f>
         <v>1</v>
       </c>
